--- a/documentation/graphs/graph 1/Graph 1.xlsx
+++ b/documentation/graphs/graph 1/Graph 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welta\Desktop\Projects\prj\graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welta\IdeaProjects\j-heuristic-search-framework\documentation\graphs\graph 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E50B122A-C155-4A52-90B1-02B33E12D61A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D622DC04-3800-4F7F-AD7C-A515C52C44B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{25D15751-0741-4B07-A7DE-B14F8F383515}"/>
+    <workbookView xWindow="8280" yWindow="3345" windowWidth="29040" windowHeight="15840" xr2:uid="{25D15751-0741-4B07-A7DE-B14F8F383515}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,15 +195,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -230,6 +221,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,7 +548,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,87 +561,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="6"/>
-      <c r="R1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="R1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <f>B2+1</f>
         <v>2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <f t="shared" ref="D2:O2" si="0">C2+1</f>
         <v>3</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <f>L2+1</f>
         <v>12</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="7">
         <f>O2+1</f>
         <v>15</v>
       </c>
@@ -649,56 +649,56 @@
         <v>1</v>
       </c>
       <c r="S2" s="2">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
         <v>0</v>
       </c>
       <c r="R3" s="1">
@@ -710,53 +710,53 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
         <v>0</v>
       </c>
       <c r="R4" s="1">
@@ -768,53 +768,53 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <f t="shared" ref="A5:A16" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12">
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
         <v>0</v>
       </c>
       <c r="R5" s="1">
@@ -826,53 +826,53 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="12">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
         <v>0</v>
       </c>
       <c r="R6" s="1">
@@ -884,53 +884,53 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="12">
-        <v>0</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
-      <c r="O7" s="12">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
         <v>0</v>
       </c>
       <c r="R7" s="1">
@@ -938,57 +938,57 @@
         <v>6</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="12">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
         <v>6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <v>8</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
         <v>0</v>
       </c>
       <c r="R8" s="1">
@@ -1000,53 +1000,53 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="12">
-        <v>0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
         <v>0</v>
       </c>
       <c r="R9" s="1">
@@ -1058,53 +1058,53 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
         <v>0</v>
       </c>
       <c r="R10" s="1">
@@ -1112,57 +1112,57 @@
         <v>9</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="12">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="B11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
         <v>0</v>
       </c>
       <c r="R11" s="1">
@@ -1174,53 +1174,53 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="B12" s="9">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <v>5</v>
       </c>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
         <v>0</v>
       </c>
       <c r="R12" s="1">
@@ -1232,53 +1232,53 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="12">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
         <v>8</v>
       </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <v>0</v>
       </c>
       <c r="R13" s="1">
@@ -1290,53 +1290,53 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="12">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
         <v>4</v>
       </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
-        <v>0</v>
-      </c>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="12">
-        <v>0</v>
-      </c>
-      <c r="O14" s="12">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
         <v>0</v>
       </c>
       <c r="R14" s="1">
@@ -1348,53 +1348,53 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="12">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
-        <v>0</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
         <v>2</v>
       </c>
-      <c r="N15" s="12">
-        <v>0</v>
-      </c>
-      <c r="O15" s="12">
-        <v>0</v>
-      </c>
-      <c r="P15" s="13">
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <v>0</v>
       </c>
       <c r="R15" s="1">
@@ -1406,53 +1406,53 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="12">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
         <v>2</v>
       </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
-        <v>0</v>
-      </c>
-      <c r="J16" s="12">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <v>0</v>
-      </c>
-      <c r="L16" s="12">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="12">
-        <v>0</v>
-      </c>
-      <c r="O16" s="12">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13">
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <v>0</v>
       </c>
       <c r="R16" s="3">
@@ -1464,53 +1464,53 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <f>A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="15">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
+      <c r="B17" s="12">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
         <v>2</v>
       </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="M17" s="15">
+      <c r="L17" s="12">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12">
         <v>6</v>
       </c>
-      <c r="N17" s="15">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16">
+      <c r="N17" s="12">
+        <v>0</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
         <v>0</v>
       </c>
     </row>
